--- a/va_facility_data_2025-02-20/Benton Harbor VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Benton%20Harbor%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Benton Harbor VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Benton%20Harbor%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="Rd8a93d2d5dfb45b5a5a4fdab93aa1df6"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="Ra666ee5af4a645498e17a297e15f0aa8"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="R0c7bdf5150004db9a57318236ae1c638"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="R2013709ec7814d3aa5f8fdf9421f3e37"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R837e661979d64925bb8728efef3e3813"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="Raf73c472936149a594d165e051370fa0"/>
   </x:sheets>
 </x:workbook>
 </file>
